--- a/data/industry/CFM/DDR.xlsx
+++ b/data/industry/CFM/DDR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932EF0AA-8676-4D72-B19D-66583622BBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CF766-7EB5-4F2D-8842-9BB8456FE4AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="8">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -128,42 +128,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,6 +1083,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>40</v>
+      </c>
+      <c r="F28" s="12">
+        <v>80</v>
+      </c>
+      <c r="G28" s="12">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECE58E1-E673-4989-AE5A-B8686BAF4454}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1730,6 +1753,29 @@
         <v>12.5</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>11</v>
+      </c>
+      <c r="F28" s="12">
+        <v>13</v>
+      </c>
+      <c r="G28" s="12">
+        <v>12.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E892F627-73C7-4D50-84EF-2BEC5382C9F2}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2376,6 +2422,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>11</v>
+      </c>
+      <c r="F28" s="12">
+        <v>25</v>
+      </c>
+      <c r="G28" s="12">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98E7142-8EB2-4D50-8855-47B862F141C9}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3022,6 +3091,29 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3030,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3674D84-1184-43AD-82E1-AE4900944B12}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3668,6 +3760,29 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F28" s="12">
+        <v>3</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBDF414-6821-49E6-A1DF-C17838025248}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4314,6 +4429,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>32</v>
+      </c>
+      <c r="F28" s="12">
+        <v>40</v>
+      </c>
+      <c r="G28" s="12">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4322,10 +4460,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E0312D-9566-49D8-B0D1-D78DB0764F8E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4960,6 +5098,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>28</v>
+      </c>
+      <c r="F28" s="12">
+        <v>32</v>
+      </c>
+      <c r="G28" s="12">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4968,13 +5129,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6397CE70-E09B-4668-A71C-5388D3A6C3B5}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5609,6 +5770,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12">
+        <v>23</v>
+      </c>
+      <c r="G28" s="12">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/industry/CFM/DDR.xlsx
+++ b/data/industry/CFM/DDR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CF766-7EB5-4F2D-8842-9BB8456FE4AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620F9E7-98A6-468F-A825-A71DCFB72B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="673" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDR4 16Gb 3200" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="9">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -63,15 +63,19 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -132,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +168,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -445,10 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1121,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>40</v>
+      </c>
+      <c r="F29" s="12">
+        <v>80</v>
+      </c>
+      <c r="G29" s="12">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,10 +1153,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECE58E1-E673-4989-AE5A-B8686BAF4454}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1776,6 +1817,29 @@
         <v>12.5</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>11</v>
+      </c>
+      <c r="F29" s="12">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12">
+        <v>12.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,10 +1848,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E892F627-73C7-4D50-84EF-2BEC5382C9F2}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2445,6 +2512,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>11</v>
+      </c>
+      <c r="F29" s="12">
+        <v>25</v>
+      </c>
+      <c r="G29" s="12">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2453,10 +2543,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98E7142-8EB2-4D50-8855-47B862F141C9}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3114,6 +3207,29 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>6</v>
+      </c>
+      <c r="F29" s="12">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12">
+        <v>6.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3122,10 +3238,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3674D84-1184-43AD-82E1-AE4900944B12}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3783,6 +3902,29 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,10 +3933,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBDF414-6821-49E6-A1DF-C17838025248}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4452,6 +4597,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>32</v>
+      </c>
+      <c r="F29" s="12">
+        <v>40</v>
+      </c>
+      <c r="G29" s="12">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4460,10 +4628,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E0312D-9566-49D8-B0D1-D78DB0764F8E}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5121,6 +5292,29 @@
         <v>30</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12">
+        <v>28</v>
+      </c>
+      <c r="F29" s="12">
+        <v>32</v>
+      </c>
+      <c r="G29" s="12">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5129,13 +5323,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6397CE70-E09B-4668-A71C-5388D3A6C3B5}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5144,8 +5338,8 @@
     <col min="2" max="2" width="14.25" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="11.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="16"/>
+    <col min="7" max="7" width="11.25" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5162,13 +5356,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5185,13 +5379,13 @@
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>3.7</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="15">
         <v>4.5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5208,13 +5402,13 @@
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="15">
         <v>3.7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="15">
         <v>4.5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5231,13 +5425,13 @@
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>3.7</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="15">
         <v>4.5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5254,13 +5448,13 @@
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>3.7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="15">
         <v>4.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5277,13 +5471,13 @@
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>3.7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="15">
         <v>4.5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5300,13 +5494,13 @@
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>3.7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>4.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5323,13 +5517,13 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>3.7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="15">
         <v>4.5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5346,13 +5540,13 @@
       <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="15">
         <v>3.7</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="15">
         <v>4.5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5369,13 +5563,13 @@
       <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="15">
         <v>3.7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="15">
         <v>4.5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5392,13 +5586,13 @@
       <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="15">
         <v>3.9</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="15">
         <v>4.7</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="16">
         <v>4.3</v>
       </c>
     </row>
@@ -5415,13 +5609,13 @@
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="15">
         <v>4.2</v>
       </c>
-      <c r="F12" s="11">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -5438,13 +5632,13 @@
       <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="15">
         <v>4.8</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="15">
         <v>5.6</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="16">
         <v>5.2</v>
       </c>
     </row>
@@ -5461,13 +5655,13 @@
       <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="11">
-        <v>5</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15">
         <v>5.8</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="16">
         <v>5.4</v>
       </c>
     </row>
@@ -5484,13 +5678,13 @@
       <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="15">
         <v>6.2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="15">
         <v>7.8</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="16">
         <v>6.6</v>
       </c>
     </row>
@@ -5507,13 +5701,13 @@
       <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="15">
         <v>6.6</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="15">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="16">
         <v>7</v>
       </c>
     </row>
@@ -5530,13 +5724,13 @@
       <c r="D17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="15">
         <v>7.1</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="15">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="16">
         <v>7.5</v>
       </c>
     </row>
@@ -5553,13 +5747,13 @@
       <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="15">
         <v>8.6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="15">
         <v>10.199999999999999</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="16">
         <v>9</v>
       </c>
     </row>
@@ -5576,13 +5770,13 @@
       <c r="D19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="15">
         <v>10.1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="15">
         <v>11.7</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="16">
         <v>10.5</v>
       </c>
     </row>
@@ -5599,13 +5793,13 @@
       <c r="D20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="15">
         <v>10.1</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="15">
         <v>11.7</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="16">
         <v>10.5</v>
       </c>
     </row>
@@ -5622,13 +5816,13 @@
       <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>12.6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="15">
         <v>14.2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5645,13 +5839,13 @@
       <c r="D22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="15">
         <v>12.6</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="15">
         <v>14.2</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5668,13 +5862,13 @@
       <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>12.6</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="15">
         <v>14.2</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5691,13 +5885,13 @@
       <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>13</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="15">
         <v>18</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="16">
         <v>15</v>
       </c>
     </row>
@@ -5714,13 +5908,13 @@
       <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="15">
         <v>13</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="15">
         <v>18</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="16">
         <v>15</v>
       </c>
     </row>
@@ -5737,13 +5931,13 @@
       <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="15">
         <v>18</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="15">
         <v>21</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="16">
         <v>20</v>
       </c>
     </row>
@@ -5760,13 +5954,13 @@
       <c r="D27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="15">
         <v>18</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="15">
         <v>21</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="16">
         <v>20</v>
       </c>
     </row>
@@ -5783,13 +5977,36 @@
       <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="16">
         <v>20</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="16">
         <v>23</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="B29" s="9">
+        <v>46056</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="16">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>23</v>
+      </c>
+      <c r="G29" s="16">
         <v>22</v>
       </c>
     </row>
